--- a/res/testcase/system/role.xlsx
+++ b/res/testcase/system/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="4"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>动作</t>
   </si>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>RolePage.删除-确认</t>
-  </si>
-  <si>
-    <t>操1作成功</t>
   </si>
 </sst>
 </file>
@@ -463,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -488,6 +485,36 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -513,16 +540,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,99 +623,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,6 +646,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -661,175 +682,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,17 +855,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,36 +871,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,19 +893,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,8 +917,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,145 +960,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1882,8 +1879,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2627,8 +2624,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2822,7 +2819,7 @@
         <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">

--- a/res/testcase/system/role.xlsx
+++ b/res/testcase/system/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -488,7 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,13 +512,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,8 +533,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,41 +616,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,30 +630,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,55 +646,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,121 +766,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +855,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -870,7 +924,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,62 +947,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,133 +972,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2625,7 +2625,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/role.xlsx
+++ b/res/testcase/system/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -496,22 +496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,8 +594,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,9 +624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +646,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -664,31 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,132 +827,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,26 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +881,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,17 +929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,145 +960,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/role.xlsx
+++ b/res/testcase/system/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>动作</t>
   </si>
@@ -284,40 +284,46 @@
     <t>1</t>
   </si>
   <si>
+    <t>点击系统管理</t>
+  </si>
+  <si>
+    <t>RolePage.账号管理</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>点击系统管理</t>
-  </si>
-  <si>
-    <t>RolePage.系统管理</t>
+    <t>点击角色管理</t>
+  </si>
+  <si>
+    <t>RolePage.角色管理</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>点击角色管理</t>
-  </si>
-  <si>
-    <t>RolePage.角色管理</t>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>1角色管理界面</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>截图</t>
-  </si>
-  <si>
-    <t>1角色管理界面</t>
+    <t>新增角色</t>
+  </si>
+  <si>
+    <t>RolePage.新增角色</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>新增角色</t>
-  </si>
-  <si>
-    <t>RolePage.新增角色</t>
+    <t>点击创建角色</t>
+  </si>
+  <si>
+    <t>RolePage.创建角色</t>
   </si>
   <si>
     <t>6</t>
@@ -353,78 +359,90 @@
     <t>9</t>
   </si>
   <si>
-    <t>保存</t>
+    <t>点击设置权限列</t>
+  </si>
+  <si>
+    <t>RolePage.设置权限列</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>勾选权限</t>
+  </si>
+  <si>
+    <t>RolePage.权限表列</t>
+  </si>
+  <si>
+    <t>车场运营;on</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3角色权限选择界面</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>RolePage.完成</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>CarInfoPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4操作成功</t>
+  </si>
+  <si>
+    <t>输入搜角色名</t>
+  </si>
+  <si>
+    <t>RolePage.搜索框</t>
+  </si>
+  <si>
+    <t>点击查询</t>
+  </si>
+  <si>
+    <t>RolePage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2角色搜索界面</t>
+  </si>
+  <si>
+    <t>点击权限设置</t>
+  </si>
+  <si>
+    <t>RolePage.设置权限</t>
+  </si>
+  <si>
+    <t>首页;on</t>
+  </si>
+  <si>
+    <t>3权限设置界面</t>
+  </si>
+  <si>
+    <t>点击确认</t>
   </si>
   <si>
     <t>RolePage.确认</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>CarInfoPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3操作成功</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RolePage.角色表</t>
-  </si>
-  <si>
-    <t>输入搜角色名</t>
-  </si>
-  <si>
-    <t>RolePage.搜索框</t>
-  </si>
-  <si>
-    <t>点击查询</t>
-  </si>
-  <si>
-    <t>RolePage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2角色搜索界面</t>
-  </si>
-  <si>
-    <t>点击权限设置</t>
-  </si>
-  <si>
-    <t>RolePage.设置权限</t>
-  </si>
-  <si>
-    <t>勾选权限</t>
-  </si>
-  <si>
-    <t>RolePage.权限勾选框</t>
-  </si>
-  <si>
-    <t>用户管理;on</t>
-  </si>
-  <si>
-    <t>3权限设置界面</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
     <t>RolePage.操作成功-提示</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>4操作成功</t>
-  </si>
-  <si>
     <t>点击编辑</t>
   </si>
   <si>
@@ -432,6 +450,9 @@
   </si>
   <si>
     <t>修改角色名</t>
+  </si>
+  <si>
+    <t>RolePage.修改-角色名称</t>
   </si>
   <si>
     <t>UI测试角色修改后</t>
@@ -460,12 +481,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,9 +503,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,7 +526,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,22 +535,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,9 +554,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,22 +592,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -580,15 +606,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +616,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,26 +630,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,187 +661,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,45 +871,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -905,26 +881,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,6 +900,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -952,6 +932,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -960,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,137 +987,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,13 +1133,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1236,7 +1245,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1528,342 +1537,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1877,10 +1886,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1910,202 +1919,233 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:5">
+    <row r="2" ht="31" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" ht="31" customHeight="1" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="31" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" ht="31" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>95</v>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="31" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="31" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" ht="31" customHeight="1" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="31" customHeight="1" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" ht="31" customHeight="1" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" ht="31" customHeight="1" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7:C10 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C10 C11 C12 C13 C15 C7:C9">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2118,10 +2158,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2151,203 +2191,190 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" ht="32" customHeight="1" spans="1:5">
+    <row r="2" ht="29" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" ht="29" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" ht="29" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" ht="29" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2355,10 +2382,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C3:C4 C5:C7 C9:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C3 C4:C6 C8:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2370,19 +2397,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2403,203 +2430,190 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="2" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2607,10 +2621,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C8 C9 C10 C11 C12 C13 C14 C3:C4 C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C2:C3 C5:C6">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2622,10 +2636,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2655,200 +2669,187 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C8 C12 C13 C3:C4 C6:C7 C9:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C11 C12 C2:C3 C5:C6 C8:C10">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C24">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/system/role.xlsx
+++ b/res/testcase/system/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="150">
   <si>
     <t>动作</t>
   </si>
@@ -398,7 +398,7 @@
     <t>操作成功</t>
   </si>
   <si>
-    <t>CarInfoPage.操作成功-提示</t>
+    <t>RolePage.操作成功-提示</t>
   </si>
   <si>
     <t>14</t>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>RolePage.确认</t>
-  </si>
-  <si>
-    <t>RolePage.操作成功-提示</t>
   </si>
   <si>
     <t>点击编辑</t>
@@ -483,8 +480,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -503,38 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +521,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -562,7 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,22 +557,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -601,6 +568,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +598,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +612,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -640,7 +629,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,13 +658,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,169 +808,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,6 +867,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -881,21 +887,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,15 +909,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -937,18 +919,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,6 +938,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,133 +984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,7 +1242,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1888,8 +1885,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2356,7 +2353,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>124</v>
@@ -2399,8 +2396,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2527,13 +2524,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2542,16 +2539,16 @@
         <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
@@ -2566,7 +2563,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
@@ -2595,7 +2592,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>124</v>
@@ -2728,7 +2725,7 @@
         <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2766,13 +2763,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2788,7 +2785,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2796,13 +2793,13 @@
         <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2817,7 +2814,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>124</v>
